--- a/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17586,7 +17587,6 @@
           <t>国融融君灵活配置混合C</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
           <t>84.76</t>
@@ -17618,7 +17618,6 @@
           <t>招商财经大数据策略股票C</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
           <t>81.93</t>
@@ -17634,6 +17633,8194 @@
       </c>
       <c r="H297" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H215"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>132.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9921</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0912</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>250.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8199</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4688</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1961</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0750</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0442</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9600</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8871</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8284</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7786</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7767</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6514</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5974</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5079</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>35.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>40.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家180指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>660003</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>农银平衡双利混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>66.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009071</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007781</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>天弘弘新混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009072</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>德邦安鑫混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010832</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国泰合益混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003591</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>32.81</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>32.81</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011023</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>民生加银汇利混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>004576</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>新华恒益量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006351</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010833</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>国泰合益混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>006352</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>003592</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25826,4 +25827,5454 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1740</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8777</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8572</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7394</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5506</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>52.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家180指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011023</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银汇利混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010211</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>景顺长城顺鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012206</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>50.64</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012207</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010212</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>景顺长城顺鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006351</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006352</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际红利指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>29.68</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31277,4 +31278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>214</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>296</v>
+      </c>
+      <c r="D4" t="n">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>154</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31286,7 +31287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31297,17 +31298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -31317,14 +31338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.04</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -31333,14 +31376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>214</v>
-      </c>
-      <c r="D3" t="n">
-        <v>62.99</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -31349,14 +31414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>296</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86.08</v>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -31365,13 +31452,5697 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1484</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8572</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7624</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3616</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3323</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2949</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1693</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0790</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0269</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8665</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7530</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6804</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6728</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5600</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5078</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4609</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>57.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家180指数</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004484</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰达宏利业绩驱动量化股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>41.52</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>41.52</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012206</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010547</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012207</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003379</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>信诚至选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>41.52</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003380</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>信诚至选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>51.51</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>004485</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>泰达宏利业绩驱动量化股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010548</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>32.16</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>29.41</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>51.51</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>214</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>296</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>154</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>27.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37041,7 +37042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37052,17 +37053,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -37072,14 +37093,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48.62</v>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>513.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -37088,14 +37131,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>142</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.04</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2387</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -37104,14 +37169,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>214</v>
-      </c>
-      <c r="D4" t="n">
-        <v>62.99</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -37120,14 +37207,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>296</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86.08</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>114.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3425</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -37136,13 +37245,7951 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安上证180ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>203.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9457</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7925</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3985</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3355</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0391</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0331</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0130</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9693</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9095</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>050002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时裕富沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8550</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6914</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6674</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6074</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001548</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘上证50指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5046</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4977</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4117</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001549</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘上证50指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>561300</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510100</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达上证50ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家180指数</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>510710</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时上证50ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002385</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时裕富沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510800</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>510850</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>52.19</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>502048</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008238</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000056</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>建信消费升级混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012206</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008240</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008239</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>502040</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长盛上证50指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>63.92</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008241</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>西藏东财上证50指数C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012207</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>510600</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>申万菱信上证50ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>510680</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>万家上证50ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>920012</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>中金汇越量化对冲策略3个月定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>003548</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>501086</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华宝MSCI中国A股国际通ESG通用指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>920926</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中金汇越量化对冲策略3个月定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>013480</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>012875</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>易方达上证50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>013481</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>501000</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>国金鑫新灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>210</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>150</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>142</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>214</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>296</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>154</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>27.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45072,7 +45073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45083,17 +45084,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -45103,14 +45124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82.06</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -45119,14 +45162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>150</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48.62</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -45135,14 +45200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>142</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.04</v>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7882</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -45151,14 +45238,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>214</v>
-      </c>
-      <c r="D5" t="n">
-        <v>62.99</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -45167,14 +45276,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>296</v>
-      </c>
-      <c r="D6" t="n">
-        <v>86.08</v>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -45183,13 +45314,5494 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7557</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5488</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4711</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3719</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0134</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9729</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9631</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5873</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5867</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4954</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>561300</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家180指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008848</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融智选对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>540012</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003432</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚至瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>165526</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合(LOF) A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>37.40</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002461</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001420</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方大数据300指数A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002054</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银新财富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>30.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002057</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>42.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005294</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺德新宜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>165527</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合(LOF) C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002462</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002056</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银新财富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003433</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>信诚至瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013074</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002058</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014986</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东方核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001426</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>南方大数据300指数C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013480</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001149</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013481</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>30.83</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>-0.0207</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>210</v>
+      </c>
+      <c r="D3" t="n">
+        <v>82.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>150</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>214</v>
+      </c>
+      <c r="D6" t="n">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>296</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>154</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>27.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601398-工商银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
-        <v>42.18</v>
+        <v>48.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="D3" t="n">
-        <v>82.06</v>
+        <v>42.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D4" t="n">
-        <v>48.62</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D5" t="n">
-        <v>36.04</v>
+        <v>48.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="D6" t="n">
-        <v>62.99</v>
+        <v>36.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="D7" t="n">
-        <v>86.08</v>
+        <v>62.99</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>296</v>
+      </c>
+      <c r="D8" t="n">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>154</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>27.84</v>
       </c>
     </row>
@@ -600,6 +617,7077 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H186"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9932</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7554</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6393</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5750</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4978</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9689</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9398</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8645</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7863</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159940</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5831</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5725</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5134</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4535</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3939</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>217027</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证800银行ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家180指数</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安中证银行A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011265</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011267</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014727</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>510010</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>交银上证180公司治理ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159933</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国投瑞银金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159965</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融央视财经50ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014728</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009590</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011268</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003105</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010478</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>景顺长城泰祥回报混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008479</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>景顺长城泰申回报混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013285</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>512640</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013074</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>501060</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002792</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>景顺长城顺益回报混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159931</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富中证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002462</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>165527</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008991</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002461</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004410</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商央视财经50指数C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>160814</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长盛中证金融地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>浦银安盛沪港深基本面（LOF）</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>165526</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>信诚新旺回报灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002793</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>景顺长城顺益回报混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014986</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>东方核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003106</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>501061</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中金中证优选300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>013480</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>510270</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中银上证国企100ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>013284</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>013031</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>民生加银中证800指数增强A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011266</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>013032</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>民生加银中证800指数增强C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>013481</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华宝国证治理指数C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>东方盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>016343</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>008992</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫慧选混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6194,7 +13282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14224,7 +21312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19978,7 +27066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25428,7 +32516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33616,7 +40704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44906,7 +51994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
